--- a/hardware/lowVoltageDrive/lowVoltageDriveBOM.xlsx
+++ b/hardware/lowVoltageDrive/lowVoltageDriveBOM.xlsx
@@ -1050,7 +1050,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2537,7 +2548,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3419,6 +3430,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="L2:L24">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
